--- a/src/Chapter-5/01/销售表/电车.xlsx
+++ b/src/Chapter-5/01/销售表/电车.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-5\01\销售表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B710431-337C-4B63-9C83-162870F32D5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05354F3-72F0-4E83-BE81-60C26F0E5D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{F38C7133-55D6-422F-B579-66029C2DED2B}"/>
+    <workbookView xWindow="11175" yWindow="795" windowWidth="14565" windowHeight="11385" xr2:uid="{F38C7133-55D6-422F-B579-66029C2DED2B}"/>
   </bookViews>
   <sheets>
     <sheet name="产品销售统计" sheetId="2" r:id="rId1"/>
@@ -432,8 +432,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="20.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
